--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_21_0.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_21_0.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2731742.078563444</v>
+        <v>-2734340.873534105</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -662,10 +662,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>10.96577973845615</v>
+        <v>365.6488213591381</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>43.86785806562895</v>
+        <v>43.86785806562898</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>110.5418770458107</v>
+        <v>110.5418770458108</v>
       </c>
       <c r="T2" t="n">
         <v>204.1780969433633</v>
@@ -747,16 +747,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>92.85596119227868</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>135.0312635940655</v>
       </c>
       <c r="H3" t="n">
-        <v>89.90394266080568</v>
+        <v>37.69069145970068</v>
       </c>
       <c r="I3" t="n">
-        <v>19.91189527285529</v>
+        <v>19.9118952728553</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>2.116953416516708</v>
+        <v>2.116953416516736</v>
       </c>
       <c r="S3" t="n">
         <v>128.73407520327</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>90.13067551456429</v>
+        <v>90.1306755145643</v>
       </c>
       <c r="S4" t="n">
-        <v>190.2335559203903</v>
+        <v>190.2335559203904</v>
       </c>
       <c r="T4" t="n">
         <v>219.6628404482119</v>
@@ -874,7 +874,7 @@
         <v>286.2132921354687</v>
       </c>
       <c r="V4" t="n">
-        <v>33.69146232827728</v>
+        <v>33.6914623282766</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -896,10 +896,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,10 +908,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>213.3749514242881</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -950,13 +950,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>96.44868378079232</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>134.4415385849327</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>60.10514086429246</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,7 +1145,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>204.6785882200682</v>
+        <v>160.5958651236754</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -1193,7 +1193,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1291,10 +1291,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1351,13 +1351,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>48.99533837730304</v>
       </c>
       <c r="Y10" t="n">
-        <v>26.6692588683104</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1376,13 +1376,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722626</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187868</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1531,7 +1531,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>83.06560892428165</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,10 +1540,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>99.97427419834271</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1585,7 +1585,7 @@
         <v>286.1844743892442</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238245</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417123</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>83.06560892428257</v>
+        <v>20.88994825141634</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,10 +1816,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.405450327288</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892435</v>
+        <v>286.1844743892442</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -2002,19 +2002,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>83.06560892428128</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>121.8000472740346</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,13 +2050,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016452</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>286.184474389244</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2090,13 +2090,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,22 +2129,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2236,22 +2236,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>116.4636264596502</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>99.97427419833593</v>
+        <v>165.5241382922685</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012174</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892449</v>
+        <v>286.1844743892442</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,10 +2479,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>108.2950343703257</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>99.97427419833821</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012207</v>
+        <v>66.37524671012162</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C28" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D28" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E28" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F28" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308926</v>
       </c>
       <c r="G28" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H28" t="n">
-        <v>116.0100653541838</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652564</v>
+        <v>56.98118882652577</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808203</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S28" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096047</v>
       </c>
       <c r="T28" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U28" t="n">
-        <v>261.8998268972046</v>
+        <v>261.8998268972042</v>
       </c>
       <c r="V28" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W28" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X28" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y28" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="29">
@@ -2792,7 +2792,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C31" t="n">
         <v>142.9621736065881</v>
@@ -2956,7 +2956,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F31" t="n">
         <v>121.1364005308915</v>
@@ -2965,10 +2965,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652574</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808203</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972046</v>
+        <v>261.8998268972057</v>
       </c>
       <c r="V31" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X31" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y31" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="32">
@@ -3193,7 +3193,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3202,7 +3202,7 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
         <v>56.9811888265258</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808203</v>
+        <v>42.09059921808293</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972039</v>
       </c>
       <c r="V34" t="n">
         <v>227.8529958317883</v>
@@ -3317,7 +3317,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
         <v>142.9621736065881</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652579</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808192</v>
+        <v>42.09059921808203</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096047</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
         <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972055</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="38">
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096047</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972048</v>
@@ -3797,7 +3797,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,22 +3943,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808158</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972053</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V43" t="n">
         <v>227.8529958317883</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
         <v>201.4250078969974</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652583</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,22 +4180,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808194</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972046</v>
       </c>
       <c r="V46" t="n">
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,13 +4304,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>847.6787171265782</v>
+        <v>847.6787171265773</v>
       </c>
       <c r="C2" t="n">
-        <v>478.7162001861666</v>
+        <v>478.7162001861657</v>
       </c>
       <c r="D2" t="n">
-        <v>120.4505015794161</v>
+        <v>478.7162001861657</v>
       </c>
       <c r="E2" t="n">
         <v>109.3739563890564</v>
@@ -4325,13 +4325,13 @@
         <v>109.3739563890564</v>
       </c>
       <c r="I2" t="n">
-        <v>65.06298864599685</v>
+        <v>65.06298864599682</v>
       </c>
       <c r="J2" t="n">
-        <v>248.9490509731314</v>
+        <v>248.9490509731313</v>
       </c>
       <c r="K2" t="n">
-        <v>575.2851091032919</v>
+        <v>575.2851091032917</v>
       </c>
       <c r="L2" t="n">
         <v>1017.035607679883</v>
@@ -4346,34 +4346,34 @@
         <v>2569.579722854078</v>
       </c>
       <c r="P2" t="n">
-        <v>2955.894353302313</v>
+        <v>2955.894353302312</v>
       </c>
       <c r="Q2" t="n">
-        <v>3197.827805704725</v>
+        <v>3197.827805704723</v>
       </c>
       <c r="R2" t="n">
-        <v>3253.149432299842</v>
+        <v>3253.149432299841</v>
       </c>
       <c r="S2" t="n">
-        <v>3141.490970637407</v>
+        <v>3141.490970637406</v>
       </c>
       <c r="T2" t="n">
-        <v>2935.250468674414</v>
+        <v>2935.250468674413</v>
       </c>
       <c r="U2" t="n">
-        <v>2681.715190041276</v>
+        <v>2681.715190041275</v>
       </c>
       <c r="V2" t="n">
-        <v>2350.652302697706</v>
+        <v>2350.652302697705</v>
       </c>
       <c r="W2" t="n">
-        <v>1997.883647427592</v>
+        <v>1997.883647427591</v>
       </c>
       <c r="X2" t="n">
-        <v>1624.417889166512</v>
+        <v>1624.417889166511</v>
       </c>
       <c r="Y2" t="n">
-        <v>1234.2785571907</v>
+        <v>1234.278557190699</v>
       </c>
     </row>
     <row r="3">
@@ -4383,61 +4383,61 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>888.8020873615128</v>
+        <v>888.8020873615123</v>
       </c>
       <c r="C3" t="n">
-        <v>714.3490580803858</v>
+        <v>714.3490580803854</v>
       </c>
       <c r="D3" t="n">
-        <v>565.4146484191344</v>
+        <v>565.4146484191342</v>
       </c>
       <c r="E3" t="n">
-        <v>406.1771934136789</v>
+        <v>406.1771934136787</v>
       </c>
       <c r="F3" t="n">
-        <v>312.383293219458</v>
+        <v>259.6426354405637</v>
       </c>
       <c r="G3" t="n">
-        <v>175.9880774678766</v>
+        <v>123.2474196889827</v>
       </c>
       <c r="H3" t="n">
-        <v>85.17601417413351</v>
+        <v>85.1760141741335</v>
       </c>
       <c r="I3" t="n">
-        <v>65.06298864599685</v>
+        <v>65.06298864599682</v>
       </c>
       <c r="J3" t="n">
-        <v>155.7664206654049</v>
+        <v>155.7664206654044</v>
       </c>
       <c r="K3" t="n">
-        <v>388.9478577415914</v>
+        <v>388.9478577415906</v>
       </c>
       <c r="L3" t="n">
-        <v>748.8116174223348</v>
+        <v>748.8116174223337</v>
       </c>
       <c r="M3" t="n">
-        <v>1188.11251946505</v>
+        <v>1188.112519465049</v>
       </c>
       <c r="N3" t="n">
-        <v>1653.449054119952</v>
+        <v>1653.44905411995</v>
       </c>
       <c r="O3" t="n">
-        <v>2056.921277259249</v>
+        <v>2056.921277259247</v>
       </c>
       <c r="P3" t="n">
-        <v>2361.410240824784</v>
+        <v>2361.410240824783</v>
       </c>
       <c r="Q3" t="n">
-        <v>2515.033852890302</v>
+        <v>2515.033852890301</v>
       </c>
       <c r="R3" t="n">
-        <v>2512.895516105942</v>
+        <v>2512.89551610594</v>
       </c>
       <c r="S3" t="n">
-        <v>2382.861096708699</v>
+        <v>2382.861096708698</v>
       </c>
       <c r="T3" t="n">
-        <v>2190.088648044979</v>
+        <v>2190.088648044978</v>
       </c>
       <c r="U3" t="n">
         <v>1962.018688312012</v>
@@ -4446,13 +4446,13 @@
         <v>1726.866580080269</v>
       </c>
       <c r="W3" t="n">
-        <v>1472.629223352068</v>
+        <v>1472.629223352067</v>
       </c>
       <c r="X3" t="n">
-        <v>1264.777723146535</v>
+        <v>1264.777723146534</v>
       </c>
       <c r="Y3" t="n">
-        <v>1057.017424381581</v>
+        <v>1057.01742438158</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>65.06298864599685</v>
+        <v>65.06298864599682</v>
       </c>
       <c r="C4" t="n">
-        <v>65.06298864599685</v>
+        <v>65.06298864599682</v>
       </c>
       <c r="D4" t="n">
-        <v>65.06298864599685</v>
+        <v>65.06298864599682</v>
       </c>
       <c r="E4" t="n">
-        <v>65.06298864599685</v>
+        <v>65.06298864599682</v>
       </c>
       <c r="F4" t="n">
-        <v>65.06298864599685</v>
+        <v>65.06298864599682</v>
       </c>
       <c r="G4" t="n">
-        <v>65.06298864599685</v>
+        <v>65.06298864599682</v>
       </c>
       <c r="H4" t="n">
-        <v>65.06298864599685</v>
+        <v>65.06298864599682</v>
       </c>
       <c r="I4" t="n">
-        <v>65.06298864599685</v>
+        <v>65.06298864599682</v>
       </c>
       <c r="J4" t="n">
-        <v>75.02005212274264</v>
+        <v>75.02005212274287</v>
       </c>
       <c r="K4" t="n">
-        <v>170.2650045033534</v>
+        <v>170.2650045033535</v>
       </c>
       <c r="L4" t="n">
         <v>322.0515495633495</v>
       </c>
       <c r="M4" t="n">
-        <v>485.3474622992788</v>
+        <v>485.3474622992789</v>
       </c>
       <c r="N4" t="n">
         <v>652.618089120607</v>
       </c>
       <c r="O4" t="n">
-        <v>786.8064976079671</v>
+        <v>786.8064976079669</v>
       </c>
       <c r="P4" t="n">
-        <v>882.5658916983278</v>
+        <v>882.565891698328</v>
       </c>
       <c r="Q4" t="n">
-        <v>893.2769546529792</v>
+        <v>893.276954652979</v>
       </c>
       <c r="R4" t="n">
-        <v>802.2358682746313</v>
+        <v>802.2358682746312</v>
       </c>
       <c r="S4" t="n">
-        <v>610.0807612843381</v>
+        <v>610.0807612843379</v>
       </c>
       <c r="T4" t="n">
-        <v>388.1991042659423</v>
+        <v>388.1991042659419</v>
       </c>
       <c r="U4" t="n">
-        <v>99.09476877556986</v>
+        <v>99.09476877556915</v>
       </c>
       <c r="V4" t="n">
-        <v>65.06298864599685</v>
+        <v>65.06298864599682</v>
       </c>
       <c r="W4" t="n">
-        <v>65.06298864599685</v>
+        <v>65.06298864599682</v>
       </c>
       <c r="X4" t="n">
-        <v>65.06298864599685</v>
+        <v>65.06298864599682</v>
       </c>
       <c r="Y4" t="n">
-        <v>65.06298864599685</v>
+        <v>65.06298864599682</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1636.624422581789</v>
+        <v>1458.811090838974</v>
       </c>
       <c r="C5" t="n">
-        <v>1636.624422581789</v>
+        <v>1089.848573898562</v>
       </c>
       <c r="D5" t="n">
-        <v>1278.358723975039</v>
+        <v>1089.848573898562</v>
       </c>
       <c r="E5" t="n">
-        <v>892.5704713767946</v>
+        <v>704.0603213003178</v>
       </c>
       <c r="F5" t="n">
-        <v>481.5845665871869</v>
+        <v>293.0744165107103</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218339</v>
+        <v>282.0423703961108</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4577,16 +4577,16 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.60582160917</v>
@@ -4598,19 +4598,19 @@
         <v>3215.315153136265</v>
       </c>
       <c r="U5" t="n">
-        <v>3117.892240226373</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V5" t="n">
-        <v>2786.829352882803</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="W5" t="n">
-        <v>2786.829352882803</v>
+        <v>2609.016021139987</v>
       </c>
       <c r="X5" t="n">
-        <v>2413.363594621723</v>
+        <v>2235.550262878907</v>
       </c>
       <c r="Y5" t="n">
-        <v>2023.224262645911</v>
+        <v>1845.410930903096</v>
       </c>
     </row>
     <row r="6">
@@ -4620,46 +4620,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064544</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
         <v>2407.411984886741</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>443.0505103572859</v>
+        <v>370.0144869816389</v>
       </c>
       <c r="C7" t="n">
-        <v>274.114327429379</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="D7" t="n">
-        <v>274.114327429379</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="E7" t="n">
-        <v>213.4020639300937</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218339</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
         <v>315.6219318279954</v>
@@ -4759,16 +4759,16 @@
         <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1134.908724368016</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W7" t="n">
-        <v>845.4915543310558</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X7" t="n">
-        <v>845.4915543310558</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="Y7" t="n">
-        <v>624.6989751875257</v>
+        <v>370.0144869816389</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1767.878520285689</v>
+        <v>1734.047335491681</v>
       </c>
       <c r="C8" t="n">
-        <v>1767.878520285689</v>
+        <v>1365.084818551269</v>
       </c>
       <c r="D8" t="n">
-        <v>1409.612821678939</v>
+        <v>1365.084818551269</v>
       </c>
       <c r="E8" t="n">
-        <v>1023.824569080695</v>
+        <v>979.296565953025</v>
       </c>
       <c r="F8" t="n">
-        <v>612.8386642910871</v>
+        <v>568.3106611634175</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4799,55 +4799,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V8" t="n">
-        <v>2884.252265792695</v>
+        <v>2884.252265792694</v>
       </c>
       <c r="W8" t="n">
-        <v>2531.483610522581</v>
+        <v>2884.252265792694</v>
       </c>
       <c r="X8" t="n">
-        <v>2158.017852261501</v>
+        <v>2510.786507531614</v>
       </c>
       <c r="Y8" t="n">
-        <v>1767.878520285689</v>
+        <v>2120.647175555803</v>
       </c>
     </row>
     <row r="9">
@@ -4872,13 +4872,13 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
         <v>160.189385922801</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>533.4780323548191</v>
+        <v>360.6423967967187</v>
       </c>
       <c r="C10" t="n">
-        <v>364.5418494269122</v>
+        <v>360.6423967967187</v>
       </c>
       <c r="D10" t="n">
-        <v>214.4252100145765</v>
+        <v>360.6423967967187</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1513.842048484845</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U10" t="n">
-        <v>1224.739181610489</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V10" t="n">
-        <v>970.0546934046018</v>
+        <v>1101.990851592604</v>
       </c>
       <c r="W10" t="n">
-        <v>970.0546934046018</v>
+        <v>812.5736815556431</v>
       </c>
       <c r="X10" t="n">
-        <v>742.0651425065845</v>
+        <v>763.0834407704886</v>
       </c>
       <c r="Y10" t="n">
-        <v>715.1264971850588</v>
+        <v>542.2908616269584</v>
       </c>
     </row>
     <row r="11">
@@ -5021,58 +5021,58 @@
         <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,22 +5112,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637306</v>
+        <v>589.1422692637308</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438176</v>
+        <v>680.0291294438167</v>
       </c>
       <c r="N12" t="n">
         <v>1307.627092998424</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400758</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121689</v>
       </c>
       <c r="D13" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998331</v>
       </c>
       <c r="E13" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998332</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998332</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>194.8007783998332</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648824</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611863</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138456</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703155</v>
       </c>
     </row>
     <row r="14">
@@ -5255,13 +5255,13 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5270,22 +5270,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355937</v>
@@ -5294,31 +5294,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,19 +5349,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="M15" t="n">
         <v>680.0291294438171</v>
@@ -5410,58 +5410,58 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400721</v>
+        <v>513.8536007400718</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121652</v>
+        <v>344.9174178121649</v>
       </c>
       <c r="D16" t="n">
-        <v>261.0127623330919</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E16" t="n">
-        <v>261.0127623330919</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797746</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
         <v>1977.461080510509</v>
@@ -5476,10 +5476,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138416</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703119</v>
+        <v>695.5020655703115</v>
       </c>
     </row>
     <row r="17">
@@ -5495,13 +5495,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5513,10 +5513,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5534,7 +5534,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400708</v>
+        <v>513.8536007400711</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121639</v>
+        <v>513.8536007400711</v>
       </c>
       <c r="D19" t="n">
-        <v>261.0127623330919</v>
+        <v>363.7369613277353</v>
       </c>
       <c r="E19" t="n">
-        <v>261.0127623330919</v>
+        <v>363.7369613277353</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>216.847013829825</v>
       </c>
       <c r="G19" t="n">
         <v>93.81666304797187</v>
@@ -5674,19 +5674,19 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
@@ -5695,7 +5695,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
         <v>2197.062545487567</v>
@@ -5713,10 +5713,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138406</v>
+        <v>916.294644713841</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703105</v>
+        <v>695.5020655703108</v>
       </c>
     </row>
     <row r="20">
@@ -5735,19 +5735,19 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
         <v>378.192580311172</v>
@@ -5780,19 +5780,19 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400693</v>
+        <v>577.8620388433916</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121623</v>
+        <v>408.9258559154847</v>
       </c>
       <c r="D22" t="n">
-        <v>194.8007783998264</v>
+        <v>408.9258559154847</v>
       </c>
       <c r="E22" t="n">
-        <v>194.8007783998264</v>
+        <v>261.0127623330916</v>
       </c>
       <c r="F22" t="n">
-        <v>194.8007783998264</v>
+        <v>261.0127623330916</v>
       </c>
       <c r="G22" t="n">
         <v>93.81666304797187</v>
@@ -5914,7 +5914,7 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5926,34 +5926,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854704</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648817</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611857</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138393</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.502065570309</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5984,13 +5984,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6002,7 +6002,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400705</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121635</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>235.5284942057739</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E25" t="n">
-        <v>235.5284942057739</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>235.5284942057739</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057739</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6145,13 +6145,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.741944003834</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6163,13 +6163,13 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
         <v>2197.062545487567</v>
@@ -6178,19 +6178,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854705</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648818</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
         <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138404</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703103</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6212,16 +6212,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J26" t="n">
         <v>378.192580311172</v>
@@ -6358,49 +6358,49 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319332</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656826</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150032</v>
       </c>
       <c r="E28" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942665</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580109</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G28" t="n">
-        <v>268.555303634547</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H28" t="n">
-        <v>151.3734194384018</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K28" t="n">
-        <v>483.8255460380729</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L28" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M28" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N28" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O28" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P28" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q28" t="n">
         <v>2639.297491717215</v>
@@ -6409,25 +6409,25 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S28" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T28" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U28" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W28" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.798285518752</v>
       </c>
       <c r="X28" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.338681582391</v>
       </c>
       <c r="Y28" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400517</v>
       </c>
     </row>
     <row r="29">
@@ -6449,7 +6449,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6458,13 +6458,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319317</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656811</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150024</v>
+        <v>656.964603115002</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H31" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6652,19 +6652,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="32">
@@ -6686,16 +6686,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
         <v>378.192580311172</v>
@@ -6838,31 +6838,31 @@
         <v>782.5512955656816</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954148</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380727</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6880,13 +6880,13 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U34" t="n">
         <v>1978.840049838286</v>
@@ -6898,7 +6898,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y34" t="n">
         <v>1084.076049400516</v>
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,22 +6932,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7020,7 +7020,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M36" t="n">
         <v>680.0291294438176</v>
@@ -7069,13 +7069,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319319</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E37" t="n">
         <v>533.5814564942654</v>
@@ -7093,13 +7093,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954151</v>
+        <v>198.0944824954148</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311324</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7117,28 +7117,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="38">
@@ -7154,28 +7154,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7312,13 +7312,13 @@
         <v>782.5512955656818</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G40" t="n">
         <v>268.5553036345476</v>
@@ -7327,7 +7327,7 @@
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
@@ -7336,7 +7336,7 @@
         <v>483.8255460380729</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7345,10 +7345,10 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
         <v>2639.297491717215</v>
@@ -7400,13 +7400,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
         <v>378.192580311172</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7497,7 +7497,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N42" t="n">
         <v>1307.627092998424</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656815</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345474</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7567,13 +7567,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954146</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380725</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311319</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7600,16 +7600,16 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7728,10 +7728,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>184.7035232280589</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>680.0291294438176</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M45" t="n">
         <v>680.0291294438176</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7804,13 +7804,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954154</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380733</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311327</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979287</v>
@@ -7825,22 +7825,22 @@
         <v>2496.057455973197</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
         <v>1483.798285518751</v>
@@ -22550,10 +22550,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>370.9645903338056</v>
+        <v>16.28154871312364</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -22635,13 +22635,13 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>52.21325120110519</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>52.213251201105</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -22720,10 +22720,10 @@
         <v>166.0524636397191</v>
       </c>
       <c r="H4" t="n">
-        <v>144.9920054808265</v>
+        <v>144.9920054808266</v>
       </c>
       <c r="I4" t="n">
-        <v>97.15402040370427</v>
+        <v>97.15402040370428</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22762,7 +22762,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>218.4461809955507</v>
+        <v>218.4461809955514</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>65.54986409393071</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23428,13 +23428,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>40.32043864788115</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>65.54986409392978</v>
+        <v>127.725524766796</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23890,19 +23890,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>65.54986409393108</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>43.72409101823428</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>63.36835372228711</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>65.54986409393268</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856559</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>40.32043864788663</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922689</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.2658363185656</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1136131.890650283</v>
+        <v>1136131.890650282</v>
       </c>
     </row>
     <row r="3">
@@ -26366,13 +26366,13 @@
         <v>1308430.533701948</v>
       </c>
       <c r="C3" t="n">
-        <v>19312.30676833847</v>
+        <v>19312.30676833879</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073556</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,19 +26390,19 @@
         <v>232219.4755097968</v>
       </c>
       <c r="K3" t="n">
-        <v>4661.989000940735</v>
+        <v>4661.989000940824</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551181</v>
+        <v>85055.02793551193</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.71799363182</v>
+        <v>19427.71799363181</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>572.0114859742004</v>
+        <v>572.0114859742001</v>
       </c>
       <c r="C4" t="n">
-        <v>92793.8428831941</v>
+        <v>92793.84288319407</v>
       </c>
       <c r="D4" t="n">
-        <v>92793.84288319403</v>
+        <v>92793.84288319407</v>
       </c>
       <c r="E4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="F4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184271</v>
       </c>
       <c r="G4" t="n">
         <v>13606.80811184275</v>
       </c>
       <c r="H4" t="n">
-        <v>13606.8081118427</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="I4" t="n">
         <v>13606.80811184274</v>
       </c>
       <c r="J4" t="n">
-        <v>21597.6673749362</v>
+        <v>21597.66737493623</v>
       </c>
       <c r="K4" t="n">
-        <v>21597.66737493621</v>
+        <v>21597.66737493623</v>
       </c>
       <c r="L4" t="n">
-        <v>21597.66737493621</v>
+        <v>21597.66737493622</v>
       </c>
       <c r="M4" t="n">
-        <v>21597.66737493623</v>
+        <v>21597.66737493622</v>
       </c>
       <c r="N4" t="n">
         <v>21597.66737493621</v>
       </c>
       <c r="O4" t="n">
+        <v>21597.66737493621</v>
+      </c>
+      <c r="P4" t="n">
         <v>21597.66737493622</v>
-      </c>
-      <c r="P4" t="n">
-        <v>21597.66737493621</v>
       </c>
     </row>
     <row r="5">
@@ -26519,40 +26519,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1415512.909311426</v>
+        <v>-1415942.468178015</v>
       </c>
       <c r="C6" t="n">
-        <v>-220040.0902129259</v>
+        <v>-220040.0902129261</v>
       </c>
       <c r="D6" t="n">
         <v>-200727.7834445873</v>
       </c>
       <c r="E6" t="n">
-        <v>-440141.799743105</v>
+        <v>-440176.5376685412</v>
       </c>
       <c r="F6" t="n">
-        <v>-114729.3379357499</v>
+        <v>-114764.0758611855</v>
       </c>
       <c r="G6" t="n">
-        <v>-114729.3379357499</v>
+        <v>-114764.0758611856</v>
       </c>
       <c r="H6" t="n">
-        <v>-114729.3379357497</v>
+        <v>-114764.0758611856</v>
       </c>
       <c r="I6" t="n">
-        <v>-114729.3379357498</v>
+        <v>-114764.0758611855</v>
       </c>
       <c r="J6" t="n">
         <v>-356981.2587386484</v>
       </c>
       <c r="K6" t="n">
-        <v>-129423.7722297923</v>
+        <v>-129423.7722297924</v>
       </c>
       <c r="L6" t="n">
         <v>-124761.7832288516</v>
       </c>
       <c r="M6" t="n">
-        <v>-209816.8111643634</v>
+        <v>-209816.8111643635</v>
       </c>
       <c r="N6" t="n">
         <v>-124761.7832288516</v>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="K2" t="n">
+        <v>24.28464749203977</v>
+      </c>
+      <c r="L2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="M2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="N2" t="n">
+        <v>24.28464749203972</v>
+      </c>
+      <c r="O2" t="n">
         <v>24.28464749203971</v>
       </c>
-      <c r="L2" t="n">
-        <v>24.28464749203971</v>
-      </c>
-      <c r="M2" t="n">
-        <v>24.28464749203977</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24.28464749203973</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>24.28464749203975</v>
-      </c>
-      <c r="P2" t="n">
-        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1074.995080392018</v>
+        <v>1074.995080392017</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>813.2873580749606</v>
+        <v>813.2873580749604</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>24.28464749203977</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>24.28464749203976</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.28464749203978</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1074.995080392018</v>
+        <v>1074.995080392017</v>
       </c>
       <c r="C3" t="n">
-        <v>14.7816202012807</v>
+        <v>14.78162020128093</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>813.2873580749606</v>
+        <v>813.2873580749604</v>
       </c>
       <c r="C4" t="n">
-        <v>18.11409732733182</v>
+        <v>18.11409732733216</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>813.2873580749606</v>
+        <v>813.2873580749604</v>
       </c>
       <c r="K4" t="n">
-        <v>18.11409732733182</v>
+        <v>18.11409732733216</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>813.2873580749606</v>
+        <v>813.2873580749604</v>
       </c>
       <c r="K4" t="n">
-        <v>18.11409732733182</v>
+        <v>18.11409732733216</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27616,10 +27616,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,10 +27628,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>81.23281296303233</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -27670,13 +27670,13 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>154.5464881781097</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,22 +27771,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>32.80528251369509</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>86.32882178227672</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27831,7 +27831,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,7 +27865,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>206.2431374333852</v>
+        <v>250.3258605297781</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27913,7 +27913,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28011,10 +28011,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28026,7 +28026,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,13 +28071,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>176.7143170117341</v>
       </c>
       <c r="Y10" t="n">
-        <v>191.9153944837844</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28096,7 +28096,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>-3.719420574947555e-13</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -28305,7 +28305,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>3.516712846855323e-12</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203977</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.32158826288248</v>
+        <v>4.321588262882479</v>
       </c>
       <c r="H2" t="n">
-        <v>44.25846579724521</v>
+        <v>44.25846579724519</v>
       </c>
       <c r="I2" t="n">
-        <v>166.608031504777</v>
+        <v>166.6080315047769</v>
       </c>
       <c r="J2" t="n">
-        <v>366.7894018268222</v>
+        <v>366.7894018268221</v>
       </c>
       <c r="K2" t="n">
-        <v>549.7222329946377</v>
+        <v>549.7222329946376</v>
       </c>
       <c r="L2" t="n">
-        <v>681.9790397948275</v>
+        <v>681.9790397948274</v>
       </c>
       <c r="M2" t="n">
-        <v>758.8330850648638</v>
+        <v>758.8330850648636</v>
       </c>
       <c r="N2" t="n">
-        <v>771.1117977167786</v>
+        <v>771.1117977167785</v>
       </c>
       <c r="O2" t="n">
-        <v>728.1390044277409</v>
+        <v>728.1390044277408</v>
       </c>
       <c r="P2" t="n">
-        <v>621.4497941878296</v>
+        <v>621.4497941878295</v>
       </c>
       <c r="Q2" t="n">
-        <v>466.6829145233507</v>
+        <v>466.6829145233506</v>
       </c>
       <c r="R2" t="n">
-        <v>271.4659687182918</v>
+        <v>271.4659687182917</v>
       </c>
       <c r="S2" t="n">
-        <v>98.47819254043461</v>
+        <v>98.47819254043458</v>
       </c>
       <c r="T2" t="n">
         <v>18.91775262076806</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3457270610305983</v>
+        <v>0.3457270610305982</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,34 +31118,34 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.312253569145095</v>
+        <v>2.312253569145094</v>
       </c>
       <c r="H3" t="n">
         <v>22.33150157569078</v>
       </c>
       <c r="I3" t="n">
-        <v>79.61048472714471</v>
+        <v>79.61048472714469</v>
       </c>
       <c r="J3" t="n">
         <v>218.4572549690986</v>
       </c>
       <c r="K3" t="n">
-        <v>373.37824410182</v>
+        <v>373.3782441018199</v>
       </c>
       <c r="L3" t="n">
-        <v>502.05312693214</v>
+        <v>502.0531269321399</v>
       </c>
       <c r="M3" t="n">
-        <v>585.8723188136495</v>
+        <v>585.8723188136494</v>
       </c>
       <c r="N3" t="n">
-        <v>601.3786157751533</v>
+        <v>601.3786157751532</v>
       </c>
       <c r="O3" t="n">
-        <v>550.1439445851488</v>
+        <v>550.1439445851487</v>
       </c>
       <c r="P3" t="n">
-        <v>441.5390170764874</v>
+        <v>441.5390170764873</v>
       </c>
       <c r="Q3" t="n">
         <v>295.1571398087668</v>
@@ -31154,10 +31154,10 @@
         <v>143.5625505474472</v>
       </c>
       <c r="S3" t="n">
-        <v>42.94909590056785</v>
+        <v>42.94909590056783</v>
       </c>
       <c r="T3" t="n">
-        <v>9.320004517738338</v>
+        <v>9.320004517738337</v>
       </c>
       <c r="U3" t="n">
         <v>0.1521219453384931</v>
@@ -31197,25 +31197,25 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.938515718739704</v>
+        <v>1.938515718739703</v>
       </c>
       <c r="H4" t="n">
         <v>17.23516702661301</v>
       </c>
       <c r="I4" t="n">
-        <v>58.29645452355402</v>
+        <v>58.296454523554</v>
       </c>
       <c r="J4" t="n">
         <v>137.053061314897</v>
       </c>
       <c r="K4" t="n">
-        <v>225.2202807772128</v>
+        <v>225.2202807772127</v>
       </c>
       <c r="L4" t="n">
-        <v>288.2044187660829</v>
+        <v>288.2044187660828</v>
       </c>
       <c r="M4" t="n">
-        <v>303.8711503475337</v>
+        <v>303.8711503475336</v>
       </c>
       <c r="N4" t="n">
         <v>296.6457735776859</v>
@@ -31224,22 +31224,22 @@
         <v>274.000385408772</v>
       </c>
       <c r="P4" t="n">
-        <v>234.4546647464819</v>
+        <v>234.4546647464818</v>
       </c>
       <c r="Q4" t="n">
-        <v>162.3242571391947</v>
+        <v>162.3242571391946</v>
       </c>
       <c r="R4" t="n">
-        <v>87.1627158626052</v>
+        <v>87.16271586260518</v>
       </c>
       <c r="S4" t="n">
-        <v>33.78304211658192</v>
+        <v>33.78304211658191</v>
       </c>
       <c r="T4" t="n">
-        <v>8.282748980069641</v>
+        <v>8.282748980069639</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1057372210221658</v>
+        <v>0.1057372210221657</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31844,34 +31844,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>233.9389431948335</v>
+        <v>233.9389431948324</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32084,7 +32084,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>734.267838362266</v>
+        <v>734.2678383622658</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071786</v>
@@ -32467,7 +32467,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32941,7 +32941,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33178,7 +33178,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33415,7 +33415,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33740,10 +33740,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>233.9389431948335</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34217,10 +34217,10 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N42" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34448,13 +34448,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>229.6463482471742</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>396.970088694367</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>185.7434973001359</v>
+        <v>185.7434973001358</v>
       </c>
       <c r="K2" t="n">
-        <v>329.6323819496571</v>
+        <v>329.632381949657</v>
       </c>
       <c r="L2" t="n">
-        <v>446.2126248248402</v>
+        <v>446.2126248248401</v>
       </c>
       <c r="M2" t="n">
-        <v>528.4868518375911</v>
+        <v>528.4868518375908</v>
       </c>
       <c r="N2" t="n">
-        <v>541.6987341201877</v>
+        <v>541.6987341201875</v>
       </c>
       <c r="O2" t="n">
-        <v>498.0407930060542</v>
+        <v>498.0407930060541</v>
       </c>
       <c r="P2" t="n">
-        <v>390.2167984325601</v>
+        <v>390.21679843256</v>
       </c>
       <c r="Q2" t="n">
-        <v>244.3772246489012</v>
+        <v>244.3772246489011</v>
       </c>
       <c r="R2" t="n">
-        <v>55.88043090415965</v>
+        <v>55.8804309041596</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>91.61962830243195</v>
+        <v>91.61962830243189</v>
       </c>
       <c r="K3" t="n">
-        <v>235.536805127461</v>
+        <v>235.5368051274609</v>
       </c>
       <c r="L3" t="n">
-        <v>363.4987471522658</v>
+        <v>363.4987471522657</v>
       </c>
       <c r="M3" t="n">
-        <v>443.7382848916312</v>
+        <v>443.7382848916311</v>
       </c>
       <c r="N3" t="n">
-        <v>470.03690369182</v>
+        <v>470.0369036918199</v>
       </c>
       <c r="O3" t="n">
-        <v>407.5477001407044</v>
+        <v>407.5477001407043</v>
       </c>
       <c r="P3" t="n">
-        <v>307.5646096621572</v>
+        <v>307.5646096621571</v>
       </c>
       <c r="Q3" t="n">
         <v>155.1753657227453</v>
@@ -34854,13 +34854,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>10.05763987550093</v>
+        <v>10.0576398755009</v>
       </c>
       <c r="K4" t="n">
-        <v>96.20702260667741</v>
+        <v>96.20702260667736</v>
       </c>
       <c r="L4" t="n">
-        <v>153.3197424848446</v>
+        <v>153.3197424848445</v>
       </c>
       <c r="M4" t="n">
         <v>164.9453663999286</v>
@@ -34869,13 +34869,13 @@
         <v>168.9602291124527</v>
       </c>
       <c r="O4" t="n">
-        <v>135.5438469569293</v>
+        <v>135.5438469569292</v>
       </c>
       <c r="P4" t="n">
-        <v>96.72666069733427</v>
+        <v>96.72666069733421</v>
       </c>
       <c r="Q4" t="n">
-        <v>10.81925550974881</v>
+        <v>10.81925550974879</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,25 +35492,25 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>91.80490927281522</v>
+        <v>91.80490927281407</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35732,7 +35732,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>592.1338044402477</v>
+        <v>592.1338044402476</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238454</v>
@@ -36115,7 +36115,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295329</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36288,13 +36288,13 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
         <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
         <v>120.4022572998984</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295329</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
         <v>264.3325884096349</v>
@@ -36525,13 +36525,13 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
         <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
         <v>120.4022572998984</v>
@@ -36589,7 +36589,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36753,25 +36753,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K28" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L28" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M28" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N28" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O28" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P28" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q28" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,7 +36826,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36990,25 +36990,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P31" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,7 +37063,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37245,7 +37245,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37388,10 +37388,10 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37464,19 +37464,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
@@ -37701,10 +37701,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
         <v>450.5570744930848</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37865,10 +37865,10 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N42" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -37938,25 +37938,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38096,13 +38096,13 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>91.80490927281522</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>254.8360547723487</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38175,25 +38175,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
